--- a/data/excel_exam.xlsx
+++ b/data/excel_exam.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc954deabf6f6732/Easy_Python/prj_EasyPython/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\LS빅데이터스쿨\lsbigdata-project1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{76476224-A389-461C-80BA-E062FF038C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC159BAD-020A-46CA-B172-C30ECF3DF1DB}"/>
   <bookViews>
-    <workbookView xWindow="53560" yWindow="6440" windowWidth="8070" windowHeight="8700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53560" yWindow="6440" windowWidth="8070" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,11 +40,19 @@
     <t>nclass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,23 +192,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -237,23 +227,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -429,14 +402,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,8 +427,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -469,8 +450,16 @@
       <c r="E2" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2">
+        <f>SUM(C2:E2)</f>
+        <v>198</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(C2:E2)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -486,8 +475,16 @@
       <c r="E3" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="0">SUM(C3:E3)</f>
+        <v>217</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G21" si="1">AVERAGE(C3:E3)</f>
+        <v>72.333333333333329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -503,8 +500,16 @@
       <c r="E4" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>209</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>69.666666666666671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -520,8 +525,16 @@
       <c r="E5" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -537,8 +550,16 @@
       <c r="E6" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -554,8 +575,16 @@
       <c r="E7" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -571,8 +600,16 @@
       <c r="E8" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>71.666666666666671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -588,8 +625,16 @@
       <c r="E9" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>64.333333333333329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -605,8 +650,16 @@
       <c r="E10" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>44.333333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -622,8 +675,16 @@
       <c r="E11" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>64.333333333333329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -639,8 +700,16 @@
       <c r="E12" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -656,8 +725,16 @@
       <c r="E13" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -673,8 +750,16 @@
       <c r="E14" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>209</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>69.666666666666671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -690,8 +775,16 @@
       <c r="E15" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -707,8 +800,16 @@
       <c r="E16" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>209</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>69.666666666666671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -724,8 +825,16 @@
       <c r="E17" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>73.666666666666671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -741,8 +850,16 @@
       <c r="E18" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -758,8 +875,16 @@
       <c r="E19" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>82.666666666666671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -775,8 +900,16 @@
       <c r="E20" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>81.333333333333329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -791,6 +924,14 @@
       </c>
       <c r="E21" s="1">
         <v>58</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>219</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_exam.xlsx
+++ b/data/excel_exam.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\LS빅데이터스쿨\lsbigdata-project1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc954deabf6f6732/Easy_Python/prj_EasyPython/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{76476224-A389-461C-80BA-E062FF038C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC159BAD-020A-46CA-B172-C30ECF3DF1DB}"/>
   <bookViews>
-    <workbookView xWindow="53560" yWindow="6440" windowWidth="8070" windowHeight="8700"/>
+    <workbookView xWindow="53560" yWindow="6440" windowWidth="8070" windowHeight="8700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,19 +41,11 @@
     <t>nclass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,6 +185,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -227,6 +237,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,16 +429,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,14 +452,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -450,16 +469,8 @@
       <c r="E2" s="1">
         <v>50</v>
       </c>
-      <c r="F2">
-        <f>SUM(C2:E2)</f>
-        <v>198</v>
-      </c>
-      <c r="G2">
-        <f>AVERAGE(C2:E2)</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -475,16 +486,8 @@
       <c r="E3" s="1">
         <v>60</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F21" si="0">SUM(C3:E3)</f>
-        <v>217</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G21" si="1">AVERAGE(C3:E3)</f>
-        <v>72.333333333333329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -500,16 +503,8 @@
       <c r="E4" s="1">
         <v>78</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>209</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>69.666666666666671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -525,16 +520,8 @@
       <c r="E5" s="1">
         <v>58</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>186</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -550,16 +537,8 @@
       <c r="E6" s="1">
         <v>65</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>56.666666666666664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -575,16 +554,8 @@
       <c r="E7" s="1">
         <v>98</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>237</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -600,16 +571,8 @@
       <c r="E8" s="1">
         <v>45</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>215</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>71.666666666666671</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -625,16 +588,8 @@
       <c r="E9" s="1">
         <v>25</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>193</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>64.333333333333329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -650,16 +605,8 @@
       <c r="E10" s="1">
         <v>15</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>44.333333333333336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -675,16 +622,8 @@
       <c r="E11" s="1">
         <v>45</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>193</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>64.333333333333329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -700,16 +639,8 @@
       <c r="E12" s="1">
         <v>65</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -725,16 +656,8 @@
       <c r="E13" s="1">
         <v>32</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>162</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -750,16 +673,8 @@
       <c r="E14" s="1">
         <v>65</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>209</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>69.666666666666671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -775,16 +690,8 @@
       <c r="E15" s="1">
         <v>12</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>147</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -800,16 +707,8 @@
       <c r="E16" s="1">
         <v>78</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>209</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>69.666666666666671</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -825,16 +724,8 @@
       <c r="E17" s="1">
         <v>65</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>221</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>73.666666666666671</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -850,16 +741,8 @@
       <c r="E18" s="1">
         <v>98</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>231</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -875,16 +758,8 @@
       <c r="E19" s="1">
         <v>90</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>248</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>82.666666666666671</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -900,16 +775,8 @@
       <c r="E20" s="1">
         <v>87</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>244</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>81.333333333333329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -924,14 +791,6 @@
       </c>
       <c r="E21" s="1">
         <v>58</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>219</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>73</v>
       </c>
     </row>
   </sheetData>
